--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1569126.601235243</v>
+        <v>1565114.798503147</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140342</v>
+        <v>6432656.960140346</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>68.65836421618064</v>
       </c>
       <c r="G11" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.6069475602776</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>134.9617199762906</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1587,16 +1587,16 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>15.82024332590385</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>69.48339351124781</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.643606858219286</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1779,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1821,19 +1821,19 @@
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>26.32578830936444</v>
+        <v>252.1471182487669</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>338.7232859504541</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.0757549839469</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.758420399135415</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
@@ -2058,16 +2058,16 @@
         <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>234.9965367236235</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>331.741443912236</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>148.9182900177242</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2247,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>46.12998352810632</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>239.0227956106729</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>346.8821769516239</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>15.52873769925172</v>
       </c>
     </row>
     <row r="24">
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8999186087148</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T25" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.333984989982</v>
+        <v>277.3339849899806</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2560,7 +2560,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>370.3470771292572</v>
+        <v>324.7524302013896</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2733,7 +2733,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I28" t="n">
-        <v>71.96559361603957</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2769,7 +2769,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,19 +2794,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>372.1058598235962</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>161.6380186052235</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3006,7 +3006,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U31" t="n">
-        <v>277.333984989981</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>33.22741549789436</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>175.56622677575</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T32" t="n">
         <v>210.0177446442482</v>
@@ -3088,13 +3088,13 @@
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4334047779237</v>
+        <v>134.4334047779238</v>
       </c>
       <c r="I34" t="n">
         <v>71.96559361603954</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>28.40231600194775</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>315.0230688992297</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>15.75775879579395</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>138.1714934568072</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>196.31739220862</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>30.59558709539441</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.88264500235335</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>15.75775879579395</v>
       </c>
       <c r="T40" t="n">
         <v>237.097464026797</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>115.0010632502202</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>157.9952755571703</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3912,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>7.373888398707753</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>254.5400541064357</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>38.04163388693716</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>149.4566733445571</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>15.75775879579395</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>145.7879722290372</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1297.112211475512</v>
+        <v>791.7515185454666</v>
       </c>
       <c r="C11" t="n">
-        <v>870.211481488812</v>
+        <v>791.7515185454666</v>
       </c>
       <c r="D11" t="n">
-        <v>870.211481488812</v>
+        <v>791.7515185454666</v>
       </c>
       <c r="E11" t="n">
-        <v>870.211481488812</v>
+        <v>791.7515185454666</v>
       </c>
       <c r="F11" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103622</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
         <v>1626.510864636164</v>
@@ -5065,28 +5065,28 @@
         <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.142258348449</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.142258348449</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.142258348449</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516196</v>
+        <v>1197.088788590576</v>
       </c>
       <c r="Y11" t="n">
-        <v>1297.112211475512</v>
+        <v>791.7515185454666</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426538</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109021</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283642</v>
+        <v>758.507453133302</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838656</v>
+        <v>1002.337654088803</v>
       </c>
       <c r="N12" t="n">
-        <v>992.5205257180611</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O12" t="n">
-        <v>1220.01238974092</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P12" t="n">
-        <v>1399.453043391742</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.7469826734012</v>
+        <v>522.9147253154349</v>
       </c>
       <c r="C13" t="n">
-        <v>751.7744195523172</v>
+        <v>350.9421621943509</v>
       </c>
       <c r="D13" t="n">
-        <v>588.4576466790879</v>
+        <v>350.9421621943509</v>
       </c>
       <c r="E13" t="n">
-        <v>588.4576466790879</v>
+        <v>350.9421621943509</v>
       </c>
       <c r="F13" t="n">
-        <v>416.5958724536483</v>
+        <v>179.0803879689113</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484807</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L13" t="n">
-        <v>652.3645187823271</v>
+        <v>828.9254504309986</v>
       </c>
       <c r="M13" t="n">
-        <v>859.6247907993791</v>
+        <v>944.9015090679521</v>
       </c>
       <c r="N13" t="n">
-        <v>1372.152968782779</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O13" t="n">
-        <v>1852.309315854113</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V13" t="n">
-        <v>1441.163283055083</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W13" t="n">
-        <v>1166.310879227596</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="X13" t="n">
-        <v>923.7469826734012</v>
+        <v>939.4234623377585</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.7469826734012</v>
+        <v>713.0806940275005</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0417859295901</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0417859295901</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0417859295901</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="E14" t="n">
-        <v>538.0648460774477</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="F14" t="n">
-        <v>112.9406642668479</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G14" t="n">
-        <v>112.9406642668479</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
         <v>1332.070421635641</v>
@@ -5305,25 +5305,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.060200796323</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794524</v>
+        <v>1918.921064792031</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794524</v>
+        <v>1918.921064792031</v>
       </c>
       <c r="V14" t="n">
-        <v>1780.281499920773</v>
+        <v>1561.431649918281</v>
       </c>
       <c r="W14" t="n">
-        <v>1383.89015022112</v>
+        <v>1165.040300218628</v>
       </c>
       <c r="X14" t="n">
-        <v>1383.89015022112</v>
+        <v>1165.040300218628</v>
       </c>
       <c r="Y14" t="n">
-        <v>1383.89015022112</v>
+        <v>1165.040300218628</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>86.44169614186399</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J15" t="n">
-        <v>165.481020982128</v>
+        <v>404.465909142654</v>
       </c>
       <c r="K15" t="n">
-        <v>313.2719753503762</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L15" t="n">
-        <v>519.5225649727761</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M15" t="n">
-        <v>763.3527659282774</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N15" t="n">
-        <v>1015.977831562473</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O15" t="n">
-        <v>1243.469695585332</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P15" t="n">
         <v>1661.89523739668</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.9334891992046</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C16" t="n">
-        <v>679.9334891992046</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D16" t="n">
-        <v>516.6167163259753</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E16" t="n">
-        <v>350.4085104788288</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F16" t="n">
-        <v>178.5467362533892</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G16" t="n">
         <v>178.5467362533892</v>
@@ -5436,22 +5436,22 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K16" t="n">
-        <v>244.4028516473351</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L16" t="n">
-        <v>353.897341839383</v>
+        <v>523.2582343051843</v>
       </c>
       <c r="M16" t="n">
-        <v>882.9956432510278</v>
+        <v>1052.356535716829</v>
       </c>
       <c r="N16" t="n">
-        <v>1395.523821234428</v>
+        <v>1564.884713700229</v>
       </c>
       <c r="O16" t="n">
-        <v>1875.680168305762</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P16" t="n">
         <v>2088.252358880159</v>
@@ -5460,28 +5460,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818623</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426652</v>
+        <v>1462.122697265671</v>
       </c>
       <c r="W16" t="n">
-        <v>1148.840154063657</v>
+        <v>1207.428638428533</v>
       </c>
       <c r="X16" t="n">
-        <v>906.2762575094625</v>
+        <v>1207.428638428533</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.9334891992046</v>
+        <v>1207.428638428533</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1919359270976</v>
+        <v>1659.293894056919</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1919359270976</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1919359270976</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E17" t="n">
-        <v>745.1919359270976</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
@@ -5545,22 +5545,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U17" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V17" t="n">
-        <v>1509.513707470408</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W17" t="n">
-        <v>1156.91193475935</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X17" t="n">
-        <v>745.1919359270976</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y17" t="n">
-        <v>745.1919359270976</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K18" t="n">
-        <v>446.8013632259966</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L18" t="n">
-        <v>653.0519528483964</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M18" t="n">
-        <v>896.8821538038977</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N18" t="n">
         <v>1149.507219438093</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>522.3810735999128</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C19" t="n">
-        <v>350.4085104788288</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D19" t="n">
-        <v>350.4085104788288</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E19" t="n">
-        <v>350.4085104788288</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F19" t="n">
-        <v>178.5467362533892</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G19" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
         <v>42.75541829589048</v>
@@ -5676,49 +5676,49 @@
         <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>491.6854607613571</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L19" t="n">
-        <v>601.1799509534052</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M19" t="n">
-        <v>1130.27825236505</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N19" t="n">
-        <v>1244.77350750657</v>
+        <v>1749.855293085983</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.926608658705</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.954328532771</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S19" t="n">
-        <v>1977.509966301745</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T19" t="n">
-        <v>1738.017578395889</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U19" t="n">
-        <v>1738.017578395889</v>
+        <v>1506.463925542871</v>
       </c>
       <c r="V19" t="n">
-        <v>1456.306111003918</v>
+        <v>1506.463925542871</v>
       </c>
       <c r="W19" t="n">
-        <v>1181.453707176431</v>
+        <v>1506.463925542871</v>
       </c>
       <c r="X19" t="n">
-        <v>938.8898106222364</v>
+        <v>1506.463925542871</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.5470423119784</v>
+        <v>1280.121157232613</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>746.0446939686403</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C20" t="n">
-        <v>746.0446939686403</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D20" t="n">
-        <v>746.0446939686403</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E20" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L20" t="n">
         <v>709.5851800848322</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N20" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q20" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U20" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V20" t="n">
-        <v>1721.652843474699</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W20" t="n">
-        <v>1721.652843474699</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X20" t="n">
-        <v>1571.23032830528</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y20" t="n">
-        <v>1165.89305826017</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J21" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333022</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M21" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>787.9556647159025</v>
+        <v>762.710677320473</v>
       </c>
       <c r="C22" t="n">
-        <v>615.9831015948184</v>
+        <v>590.738114199389</v>
       </c>
       <c r="D22" t="n">
-        <v>452.6663287215891</v>
+        <v>427.4213413261597</v>
       </c>
       <c r="E22" t="n">
-        <v>452.6663287215891</v>
+        <v>261.2131354790132</v>
       </c>
       <c r="F22" t="n">
-        <v>280.8045544961495</v>
+        <v>89.35136125357363</v>
       </c>
       <c r="G22" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484807</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L22" t="n">
-        <v>523.2582343051843</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M22" t="n">
-        <v>639.2342929421377</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N22" t="n">
-        <v>1151.762470925538</v>
+        <v>1588.472585890574</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280805</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.326552563498</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T22" t="n">
-        <v>1743.834164657642</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U22" t="n">
-        <v>1743.834164657642</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="V22" t="n">
-        <v>1462.122697265671</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.685529982163</v>
+        <v>1421.783310896991</v>
       </c>
       <c r="X22" t="n">
-        <v>978.1216334279682</v>
+        <v>1179.219414342797</v>
       </c>
       <c r="Y22" t="n">
-        <v>978.1216334279682</v>
+        <v>952.8766460325387</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2441.009380748933</v>
+        <v>1190.260696741012</v>
       </c>
       <c r="C23" t="n">
-        <v>2014.108650762233</v>
+        <v>763.3599667543117</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.816029947233</v>
+        <v>763.3599667543117</v>
       </c>
       <c r="E23" t="n">
-        <v>1164.839090095091</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="F23" t="n">
-        <v>739.714908284491</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G23" t="n">
         <v>337.3830269021693</v>
@@ -5986,7 +5986,7 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
         <v>631.2805511005022</v>
@@ -5995,19 +5995,19 @@
         <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
-        <v>1423.110161090654</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1731.483012371471</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
         <v>2762.403697278422</v>
@@ -6025,16 +6025,16 @@
         <v>2791.395418073806</v>
       </c>
       <c r="V23" t="n">
-        <v>2791.395418073806</v>
+        <v>2433.906003200055</v>
       </c>
       <c r="W23" t="n">
-        <v>2441.009380748933</v>
+        <v>2037.514653500402</v>
       </c>
       <c r="X23" t="n">
-        <v>2441.009380748933</v>
+        <v>1625.794654668149</v>
       </c>
       <c r="Y23" t="n">
-        <v>2441.009380748933</v>
+        <v>1610.109061032542</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>421.7811819283255</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965737</v>
+        <v>330.5872481360478</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189736</v>
+        <v>536.8378377584477</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>780.668038713949</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371004</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021826</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6126,19 +6126,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G25" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
@@ -6147,13 +6147,13 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>397.2373026266569</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M25" t="n">
         <v>1412.632225509645</v>
@@ -6174,19 +6174,19 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X25" t="n">
         <v>1523.779198328543</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1138.371713585089</v>
+        <v>1092.316514668051</v>
       </c>
       <c r="C26" t="n">
-        <v>711.4709835983888</v>
+        <v>665.4157846813507</v>
       </c>
       <c r="D26" t="n">
         <v>337.3830269021693</v>
@@ -6223,19 +6223,19 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
         <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542981</v>
+        <v>1302.832810844573</v>
       </c>
       <c r="L26" t="n">
-        <v>1118.62967157813</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M26" t="n">
-        <v>1862.004473712459</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N26" t="n">
         <v>2197.834060919214</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2732.766761627731</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.277346753981</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="W26" t="n">
-        <v>2375.277346753981</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="X26" t="n">
-        <v>1963.557347921728</v>
+        <v>1917.50214900469</v>
       </c>
       <c r="Y26" t="n">
-        <v>1558.220077876619</v>
+        <v>1512.164878959581</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>421.7811819283255</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965737</v>
+        <v>330.5872481360478</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>536.8378377584477</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>780.668038713949</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371004</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021826</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6363,19 +6363,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.297898185135</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6390,16 +6390,16 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>994.8841173302415</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O28" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P28" t="n">
         <v>2802.642500785833</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1138.371713585089</v>
+        <v>1755.863303987195</v>
       </c>
       <c r="C29" t="n">
-        <v>1138.371713585089</v>
+        <v>1328.962574000496</v>
       </c>
       <c r="D29" t="n">
-        <v>1138.371713585089</v>
+        <v>1328.962574000496</v>
       </c>
       <c r="E29" t="n">
-        <v>762.5072087127692</v>
+        <v>902.9856341483531</v>
       </c>
       <c r="F29" t="n">
-        <v>337.3830269021693</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
         <v>337.3830269021693</v>
@@ -6460,55 +6460,55 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>1197.759246481001</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1506.132097761818</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T29" t="n">
-        <v>2732.766761627731</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="U29" t="n">
-        <v>2732.766761627731</v>
+        <v>2533.201083152476</v>
       </c>
       <c r="V29" t="n">
-        <v>2375.277346753981</v>
+        <v>2175.711668278725</v>
       </c>
       <c r="W29" t="n">
-        <v>2375.277346753981</v>
+        <v>2175.711668278725</v>
       </c>
       <c r="X29" t="n">
-        <v>1963.557347921728</v>
+        <v>2175.711668278725</v>
       </c>
       <c r="Y29" t="n">
-        <v>1558.220077876619</v>
+        <v>2175.711668278725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>421.7811819283255</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K30" t="n">
-        <v>569.5721362965737</v>
+        <v>330.5872481360478</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189736</v>
+        <v>536.8378377584477</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>780.668038713949</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371004</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021826</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6627,19 +6627,19 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302415</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M31" t="n">
         <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O31" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P31" t="n">
-        <v>2914.405931706204</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6648,25 +6648,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1367.60031974682</v>
+        <v>2441.009380748933</v>
       </c>
       <c r="C32" t="n">
-        <v>940.6995897601198</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D32" t="n">
-        <v>763.3599667543117</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E32" t="n">
-        <v>337.3830269021693</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F32" t="n">
-        <v>337.3830269021693</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G32" t="n">
         <v>337.3830269021693</v>
@@ -6697,7 +6697,7 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
         <v>631.2805511005022</v>
@@ -6721,31 +6721,31 @@
         <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2533.201083152476</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2175.711668278725</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W32" t="n">
-        <v>1779.320318579072</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="X32" t="n">
-        <v>1367.60031974682</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1367.60031974682</v>
+        <v>2474.572426706402</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1786.317686088583</v>
+        <v>615.7482796387122</v>
       </c>
       <c r="C33" t="n">
-        <v>1668.811782606087</v>
+        <v>498.242376156217</v>
       </c>
       <c r="D33" t="n">
-        <v>1564.971824121372</v>
+        <v>394.4024176715021</v>
       </c>
       <c r="E33" t="n">
-        <v>1460.26989039431</v>
+        <v>289.7004839444393</v>
       </c>
       <c r="F33" t="n">
-        <v>1366.624060077214</v>
+        <v>196.0546536273434</v>
       </c>
       <c r="G33" t="n">
-        <v>1273.644224823271</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H33" t="n">
-        <v>1230.640097531432</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>1250.869069532994</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>1329.908394373258</v>
+        <v>316.3256816434192</v>
       </c>
       <c r="K33" t="n">
-        <v>1477.699348741506</v>
+        <v>464.1166360116675</v>
       </c>
       <c r="L33" t="n">
-        <v>1683.949938363906</v>
+        <v>670.3672256340674</v>
       </c>
       <c r="M33" t="n">
-        <v>1927.780139319407</v>
+        <v>914.1974265895689</v>
       </c>
       <c r="N33" t="n">
-        <v>2337.391898673635</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O33" t="n">
-        <v>2564.883762696494</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P33" t="n">
-        <v>2744.324416347316</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2856.163871838135</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
-        <v>3003.534554078097</v>
+        <v>1832.965147628227</v>
       </c>
       <c r="S33" t="n">
-        <v>2942.158206630578</v>
+        <v>1771.588800180708</v>
       </c>
       <c r="T33" t="n">
-        <v>2804.606988777593</v>
+        <v>1634.037582327722</v>
       </c>
       <c r="U33" t="n">
-        <v>2619.909446416206</v>
+        <v>1449.340039966336</v>
       </c>
       <c r="V33" t="n">
-        <v>2414.936307555472</v>
+        <v>1244.366901105602</v>
       </c>
       <c r="W33" t="n">
-        <v>2218.41493038869</v>
+        <v>1047.84552393882</v>
       </c>
       <c r="X33" t="n">
-        <v>2054.937584155353</v>
+        <v>884.3681777054826</v>
       </c>
       <c r="Y33" t="n">
-        <v>1915.244695508645</v>
+        <v>744.675289058775</v>
       </c>
     </row>
     <row r="34">
@@ -6855,16 +6855,16 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I34" t="n">
-        <v>60.07069108156196</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M34" t="n">
         <v>1412.632225509645</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>320.0677541164978</v>
+        <v>924.3222962175083</v>
       </c>
       <c r="C35" t="n">
-        <v>320.0677541164978</v>
+        <v>497.4215662308084</v>
       </c>
       <c r="D35" t="n">
-        <v>320.0677541164978</v>
+        <v>497.4215662308084</v>
       </c>
       <c r="E35" t="n">
-        <v>320.0677541164978</v>
+        <v>71.44462637866599</v>
       </c>
       <c r="F35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L35" t="n">
         <v>709.5851800848322</v>
@@ -6952,10 +6952,10 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q35" t="n">
         <v>2048.8787162726</v>
@@ -6964,25 +6964,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.94792342712</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V35" t="n">
-        <v>1463.45850855337</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W35" t="n">
-        <v>1463.45850855337</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.253388453138</v>
+        <v>1329.659566262618</v>
       </c>
       <c r="Y35" t="n">
-        <v>739.9161184080278</v>
+        <v>924.3222962175083</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E36" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F36" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>385.1054302494206</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J36" t="n">
-        <v>464.1447550896847</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K36" t="n">
-        <v>611.9357094579329</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L36" t="n">
-        <v>818.1862990803327</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M36" t="n">
-        <v>1062.016500035834</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N36" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1542.133429692889</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1984.016277348648</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S36" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T36" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U36" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V36" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W36" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>624.6388918426732</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C37" t="n">
-        <v>452.6663287215891</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D37" t="n">
-        <v>452.6663287215891</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E37" t="n">
-        <v>452.6663287215891</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F37" t="n">
-        <v>280.8045544961495</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
         <v>42.75541829589048</v>
@@ -7098,49 +7098,49 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>257.7653483792132</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>743.6487321624261</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M37" t="n">
-        <v>859.6247907993795</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N37" t="n">
-        <v>1372.15296878278</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O37" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.278665192341</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V37" t="n">
-        <v>1455.56719780037</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W37" t="n">
-        <v>1180.714793972883</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X37" t="n">
-        <v>1041.147628864997</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y37" t="n">
-        <v>814.8048605547388</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1170.261104918197</v>
+        <v>1294.356860345354</v>
       </c>
       <c r="C38" t="n">
-        <v>743.3603749314975</v>
+        <v>1294.356860345354</v>
       </c>
       <c r="D38" t="n">
-        <v>320.0677541164978</v>
+        <v>871.0642395303546</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H38" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
@@ -7201,25 +7201,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794524</v>
+        <v>2048.237624918758</v>
       </c>
       <c r="V38" t="n">
-        <v>1780.281499920773</v>
+        <v>1690.748210045007</v>
       </c>
       <c r="W38" t="n">
-        <v>1780.281499920773</v>
+        <v>1294.356860345354</v>
       </c>
       <c r="X38" t="n">
-        <v>1368.561501088521</v>
+        <v>1294.356860345354</v>
       </c>
       <c r="Y38" t="n">
-        <v>1368.561501088521</v>
+        <v>1294.356860345354</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377162</v>
+        <v>165.4810209821281</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059644</v>
+        <v>313.2719753503764</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283642</v>
+        <v>519.5225649727762</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838656</v>
+        <v>763.3527659282777</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180611</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.01238974092</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P39" t="n">
-        <v>1556.439737111774</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q39" t="n">
         <v>1668.279192602594</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>881.4713517589686</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4987886378846</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D40" t="n">
-        <v>546.1820157646553</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E40" t="n">
-        <v>379.9738099175088</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F40" t="n">
-        <v>208.1120356920692</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G40" t="n">
         <v>42.75541829589048</v>
@@ -7332,22 +7332,22 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>977.5688445445701</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M40" t="n">
-        <v>1096.275006445851</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N40" t="n">
-        <v>1210.770261587371</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
         <v>2088.252358880159</v>
@@ -7356,28 +7356,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.278665192341</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U40" t="n">
-        <v>1457.143326818623</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V40" t="n">
-        <v>1175.431859426652</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W40" t="n">
-        <v>1175.431859426652</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X40" t="n">
-        <v>932.8679628724568</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y40" t="n">
-        <v>932.8679628724568</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>584.0422902582278</v>
+        <v>891.17222092149</v>
       </c>
       <c r="C41" t="n">
-        <v>467.8796001064903</v>
+        <v>891.17222092149</v>
       </c>
       <c r="D41" t="n">
         <v>467.8796001064903</v>
@@ -7408,19 +7408,19 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K41" t="n">
         <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
@@ -7441,22 +7441,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U41" t="n">
-        <v>1820.94792342712</v>
+        <v>1707.411934912673</v>
       </c>
       <c r="V41" t="n">
-        <v>1820.94792342712</v>
+        <v>1707.411934912673</v>
       </c>
       <c r="W41" t="n">
-        <v>1820.94792342712</v>
+        <v>1311.02058521302</v>
       </c>
       <c r="X41" t="n">
-        <v>1409.227924594868</v>
+        <v>1311.02058521302</v>
       </c>
       <c r="Y41" t="n">
-        <v>1003.890654549758</v>
+        <v>1311.02058521302</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J42" t="n">
         <v>142.0237151377162</v>
       </c>
       <c r="K42" t="n">
-        <v>552.2568635109023</v>
+        <v>289.8146695059645</v>
       </c>
       <c r="L42" t="n">
-        <v>758.5074531333022</v>
+        <v>496.0652591283643</v>
       </c>
       <c r="M42" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838658</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719722999</v>
+        <v>992.5205257180613</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1220.01238974092</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1399.453043391742</v>
       </c>
       <c r="Q42" t="n">
         <v>1773.7346928875</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>723.5631064826966</v>
+        <v>552.7979614895605</v>
       </c>
       <c r="C43" t="n">
-        <v>551.5905433616126</v>
+        <v>380.8253983684765</v>
       </c>
       <c r="D43" t="n">
-        <v>388.2737704883833</v>
+        <v>380.8253983684765</v>
       </c>
       <c r="E43" t="n">
-        <v>222.0655646412369</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F43" t="n">
-        <v>50.2037904157973</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G43" t="n">
         <v>42.75541829589048</v>
@@ -7572,49 +7572,49 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>899.6471278963492</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.745429307994</v>
+        <v>698.242083603971</v>
       </c>
       <c r="N43" t="n">
-        <v>1543.240684449514</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1976.771053098196</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.635714724478</v>
+        <v>1486.722998893566</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.924247332507</v>
+        <v>1486.722998893566</v>
       </c>
       <c r="W43" t="n">
-        <v>1140.07184350502</v>
+        <v>1211.870595066079</v>
       </c>
       <c r="X43" t="n">
-        <v>1140.07184350502</v>
+        <v>969.3066985118842</v>
       </c>
       <c r="Y43" t="n">
-        <v>913.7290751947623</v>
+        <v>742.9639302016262</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1296.188421340954</v>
+        <v>504.4739319259783</v>
       </c>
       <c r="C44" t="n">
-        <v>1296.188421340954</v>
+        <v>504.4739319259783</v>
       </c>
       <c r="D44" t="n">
-        <v>1296.188421340954</v>
+        <v>81.18131111097853</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>81.18131111097853</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>81.18131111097853</v>
       </c>
       <c r="G44" t="n">
         <v>42.75541829589048</v>
@@ -7651,10 +7651,10 @@
         <v>222.2360596072046</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M44" t="n">
         <v>1017.95803136565</v>
@@ -7675,25 +7675,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344158</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.003122344158</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.003122344158</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W44" t="n">
-        <v>1716.036785632484</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="X44" t="n">
-        <v>1716.036785632484</v>
+        <v>1329.659566262618</v>
       </c>
       <c r="Y44" t="n">
-        <v>1716.036785632484</v>
+        <v>924.3222962175083</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J45" t="n">
-        <v>165.481020982128</v>
+        <v>165.4810209821281</v>
       </c>
       <c r="K45" t="n">
-        <v>313.2719753503762</v>
+        <v>313.2719753503764</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5225649727761</v>
+        <v>519.5225649727762</v>
       </c>
       <c r="M45" t="n">
-        <v>896.8821538038977</v>
+        <v>763.3527659282777</v>
       </c>
       <c r="N45" t="n">
-        <v>1149.507219438093</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O45" t="n">
-        <v>1376.999083460952</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P45" t="n">
-        <v>1556.439737111774</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q45" t="n">
         <v>1668.279192602594</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.9454789414306</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C46" t="n">
-        <v>444.9729158203465</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D46" t="n">
-        <v>281.6561429471172</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E46" t="n">
-        <v>115.4479370999708</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I46" t="n">
         <v>42.75541829589048</v>
@@ -7821,37 +7821,37 @@
         <v>1693.990998177372</v>
       </c>
       <c r="O46" t="n">
-        <v>1796.445020945502</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.278665192341</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U46" t="n">
-        <v>1590.018087183212</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V46" t="n">
-        <v>1308.306619791241</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W46" t="n">
-        <v>1033.454215963754</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X46" t="n">
-        <v>1033.454215963754</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.1114476534963</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575127</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>230.0459590682761</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20627614151363</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>339.7414916804572</v>
       </c>
       <c r="P16" t="n">
-        <v>129.2956009356068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713331</v>
       </c>
       <c r="K18" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>129.9928201901495</v>
       </c>
       <c r="O19" t="n">
-        <v>347.1707862464693</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>241.3988769298244</v>
+        <v>134.8781695713331</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>384.2751793611419</v>
       </c>
       <c r="O22" t="n">
-        <v>288.2188056435728</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>307.5560500126508</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>215.5968634766376</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630806</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9877,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3324725154295</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>439.3959099530423</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>21.93656256238728</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630806</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>203.0230036898349</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>475.6149430409062</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>381.4036089771762</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>289.1611029510183</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.01016813891722</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.3324725154301</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>158.5724178990226</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>383.5290567582534</v>
+        <v>304.8202520630806</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713331</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.20627614151411</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M40" t="n">
-        <v>2.757680064977407</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>265.093125257513</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219103</v>
+        <v>309.3842421978336</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>208.7016248853224</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>134.8781695713336</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P46" t="n">
-        <v>56.42858071576886</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>352.2145757763131</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.67694978438095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>28.74133124592632</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.0741093921475</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>205.0558189511535</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>51.39876302339437</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.612391572116</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>245.7780914798477</v>
+        <v>19.9567615404452</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>83.90843673637875</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>43.35168121870964</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7315240715131583</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3339849899809</v>
+        <v>42.3374482663574</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>83.90843673637869</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>258.684508826206</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>117.5730676941106</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>33.08108417853924</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>45.54525925103269</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>385.7551596454068</v>
       </c>
     </row>
     <row r="24">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>48.71261747759246</v>
+        <v>94.3072644054601</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>49.61131063002478</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>259.2349213872702</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>382.4224651507204</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>243.4934678310997</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>392.470623990546</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T35" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>92.57972994470049</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>137.1421598129215</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>101.9667641318458</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.3324884399948</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>225.0168044767216</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.3816640225917</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>137.1421598129215</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>307.6306594366127</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>97.61711601494568</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>156.3291628235092</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>22.79393088354519</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>360.2669286815612</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
         <v>255.612391572116</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>242.9707628580994</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.7030512222169</v>
@@ -26043,7 +26043,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>137.1421598129215</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>131.5460127609437</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>296601.0465757467</v>
+        <v>296601.0465757466</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>296601.0465757466</v>
+        <v>296601.0465757467</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>412830.4922292028</v>
+        <v>412830.4922292029</v>
       </c>
     </row>
     <row r="11">
@@ -26316,10 +26316,10 @@
         <v>545069.3508420008</v>
       </c>
       <c r="C2" t="n">
-        <v>545069.3508420008</v>
+        <v>545069.350842001</v>
       </c>
       <c r="D2" t="n">
-        <v>545069.3508420009</v>
+        <v>545069.350842001</v>
       </c>
       <c r="E2" t="n">
         <v>324126.1116988398</v>
@@ -26331,13 +26331,13 @@
         <v>324126.1116988398</v>
       </c>
       <c r="H2" t="n">
-        <v>324126.1116988396</v>
+        <v>324126.1116988398</v>
       </c>
       <c r="I2" t="n">
         <v>406795.3570472562</v>
       </c>
       <c r="J2" t="n">
-        <v>406795.3570472559</v>
+        <v>406795.3570472563</v>
       </c>
       <c r="K2" t="n">
         <v>406795.3570472561</v>
@@ -26346,16 +26346,16 @@
         <v>406795.3570472561</v>
       </c>
       <c r="M2" t="n">
-        <v>324126.1116988397</v>
+        <v>324126.1116988398</v>
       </c>
       <c r="N2" t="n">
         <v>324126.1116988399</v>
       </c>
       <c r="O2" t="n">
-        <v>324126.1116988397</v>
+        <v>324126.1116988399</v>
       </c>
       <c r="P2" t="n">
-        <v>324126.1116988396</v>
+        <v>324126.1116988398</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222538</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048178</v>
+        <v>57556.18318048175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.3252716077</v>
+        <v>79247.32527160775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>24095.49097269664</v>
       </c>
       <c r="G4" t="n">
-        <v>24095.49097269664</v>
+        <v>24095.49097269663</v>
       </c>
       <c r="H4" t="n">
-        <v>24095.49097269664</v>
+        <v>24095.49097269663</v>
       </c>
       <c r="I4" t="n">
-        <v>70841.91069994376</v>
+        <v>70841.91069994374</v>
       </c>
       <c r="J4" t="n">
-        <v>70841.91069994375</v>
+        <v>70841.91069994374</v>
       </c>
       <c r="K4" t="n">
-        <v>70841.91069994376</v>
+        <v>70841.91069994374</v>
       </c>
       <c r="L4" t="n">
-        <v>70841.91069994378</v>
+        <v>70841.91069994372</v>
       </c>
       <c r="M4" t="n">
-        <v>24095.49097269665</v>
+        <v>24095.49097269663</v>
       </c>
       <c r="N4" t="n">
         <v>24095.49097269664</v>
       </c>
       <c r="O4" t="n">
-        <v>24095.49097269665</v>
+        <v>24095.49097269664</v>
       </c>
       <c r="P4" t="n">
         <v>24095.49097269664</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
         <v>43269.71441650125</v>
@@ -26487,7 +26487,7 @@
         <v>43269.71441650125</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185757.3453630337</v>
+        <v>185735.6317215374</v>
       </c>
       <c r="C6" t="n">
-        <v>185757.3453630337</v>
+        <v>185735.6317215376</v>
       </c>
       <c r="D6" t="n">
-        <v>185757.3453630338</v>
+        <v>185735.6317215376</v>
       </c>
       <c r="E6" t="n">
-        <v>-299928.7496126117</v>
+        <v>-300531.8928308008</v>
       </c>
       <c r="F6" t="n">
-        <v>256760.9063096419</v>
+        <v>256157.763091453</v>
       </c>
       <c r="G6" t="n">
-        <v>256760.9063096419</v>
+        <v>256157.763091453</v>
       </c>
       <c r="H6" t="n">
-        <v>256760.9063096417</v>
+        <v>256157.763091453</v>
       </c>
       <c r="I6" t="n">
-        <v>221967.9414332191</v>
+        <v>221582.348860684</v>
       </c>
       <c r="J6" t="n">
-        <v>279524.1246137006</v>
+        <v>279138.5320411658</v>
       </c>
       <c r="K6" t="n">
-        <v>279524.1246137008</v>
+        <v>279138.5320411657</v>
       </c>
       <c r="L6" t="n">
-        <v>279524.1246137008</v>
+        <v>279138.5320411656</v>
       </c>
       <c r="M6" t="n">
-        <v>177513.5810380341</v>
+        <v>176910.4378198453</v>
       </c>
       <c r="N6" t="n">
-        <v>256760.906309642</v>
+        <v>256157.7630914531</v>
       </c>
       <c r="O6" t="n">
-        <v>256760.9063096418</v>
+        <v>256157.7630914531</v>
       </c>
       <c r="P6" t="n">
-        <v>256760.9063096418</v>
+        <v>256157.7630914531</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>534.442728698631</v>
@@ -26807,7 +26807,7 @@
         <v>534.442728698631</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208934</v>
+        <v>216.4409098208932</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777375</v>
+        <v>318.0018188777377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H11" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O11" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q11" t="n">
         <v>214.5854405596218</v>
@@ -31788,10 +31788,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U11" t="n">
         <v>0.1589687374357952</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31846,34 +31846,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L13" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M13" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N13" t="n">
         <v>136.4006738458228</v>
@@ -31937,22 +31937,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
@@ -32004,16 +32004,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M14" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O14" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P14" t="n">
         <v>285.7487894273646</v>
@@ -32025,7 +32025,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T14" t="n">
         <v>8.698570601564924</v>
@@ -32074,7 +32074,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
@@ -32107,7 +32107,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U15" t="n">
         <v>0.06994718178741882</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H16" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32174,7 +32174,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q16" t="n">
         <v>74.63830611262834</v>
@@ -32186,10 +32186,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357952</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32320,7 +32320,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M18" t="n">
         <v>269.3899127906122</v>
@@ -32329,25 +32329,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L19" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M19" t="n">
         <v>139.7229738682065</v>
@@ -32411,22 +32411,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H20" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,16 +32478,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P20" t="n">
         <v>285.7487894273646</v>
@@ -32499,10 +32499,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U20" t="n">
         <v>0.1589687374357952</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32557,7 +32557,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M21" t="n">
         <v>269.3899127906122</v>
@@ -32566,25 +32566,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q21" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L22" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M22" t="n">
         <v>139.7229738682065</v>
@@ -32648,22 +32648,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H23" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,16 +32715,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P23" t="n">
         <v>285.7487894273646</v>
@@ -32736,10 +32736,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U23" t="n">
         <v>0.1589687374357952</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32794,7 +32794,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M24" t="n">
         <v>269.3899127906122</v>
@@ -32803,25 +32803,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q24" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L25" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M25" t="n">
         <v>139.7229738682065</v>
@@ -32885,22 +32885,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H26" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,16 +32952,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P26" t="n">
         <v>285.7487894273646</v>
@@ -32973,10 +32973,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U26" t="n">
         <v>0.1589687374357952</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33031,7 +33031,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M27" t="n">
         <v>269.3899127906122</v>
@@ -33040,25 +33040,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q27" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L28" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M28" t="n">
         <v>139.7229738682065</v>
@@ -33122,22 +33122,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H29" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,16 +33189,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P29" t="n">
         <v>285.7487894273646</v>
@@ -33210,10 +33210,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U29" t="n">
         <v>0.1589687374357952</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33268,7 +33268,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M30" t="n">
         <v>269.3899127906122</v>
@@ -33277,25 +33277,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q30" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L31" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M31" t="n">
         <v>139.7229738682065</v>
@@ -33359,22 +33359,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S31" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H32" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,16 +33426,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P32" t="n">
         <v>285.7487894273646</v>
@@ -33447,10 +33447,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U32" t="n">
         <v>0.1589687374357952</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33505,7 +33505,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M33" t="n">
         <v>269.3899127906122</v>
@@ -33514,25 +33514,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q33" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L34" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M34" t="n">
         <v>139.7229738682065</v>
@@ -33596,22 +33596,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S34" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H35" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33663,16 +33663,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O35" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P35" t="n">
         <v>285.7487894273646</v>
@@ -33684,10 +33684,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U35" t="n">
         <v>0.1589687374357952</v>
@@ -33733,7 +33733,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33742,7 +33742,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M36" t="n">
         <v>269.3899127906122</v>
@@ -33751,25 +33751,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q36" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L37" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M37" t="n">
         <v>139.7229738682065</v>
@@ -33833,22 +33833,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S37" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H38" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33900,16 +33900,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O38" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P38" t="n">
         <v>285.7487894273646</v>
@@ -33921,10 +33921,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U38" t="n">
         <v>0.1589687374357952</v>
@@ -33970,7 +33970,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
@@ -33979,7 +33979,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M39" t="n">
         <v>269.3899127906122</v>
@@ -33988,25 +33988,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q39" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L40" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M40" t="n">
         <v>139.7229738682065</v>
@@ -34070,22 +34070,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S40" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H41" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -34137,16 +34137,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P41" t="n">
         <v>285.7487894273646</v>
@@ -34158,10 +34158,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U41" t="n">
         <v>0.1589687374357952</v>
@@ -34207,7 +34207,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J42" t="n">
         <v>100.4488161921859</v>
@@ -34216,7 +34216,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M42" t="n">
         <v>269.3899127906122</v>
@@ -34225,25 +34225,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q42" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S42" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L43" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
@@ -34307,22 +34307,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S43" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H44" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
@@ -34374,16 +34374,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659144</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P44" t="n">
         <v>285.7487894273646</v>
@@ -34395,10 +34395,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U44" t="n">
         <v>0.1589687374357952</v>
@@ -34444,7 +34444,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J45" t="n">
         <v>100.4488161921859</v>
@@ -34453,7 +34453,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M45" t="n">
         <v>269.3899127906122</v>
@@ -34462,25 +34462,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q45" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S45" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L46" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
@@ -34544,22 +34544,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S46" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L11" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q11" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163653</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P12" t="n">
         <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>271.5415648594465</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507202</v>
+        <v>340.646454211759</v>
       </c>
       <c r="M13" t="n">
-        <v>209.3538101182343</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N13" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O13" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q13" t="n">
         <v>202.9212659517818</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L14" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N14" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P14" t="n">
         <v>248.1734276171333</v>
@@ -35670,7 +35670,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.12755337977123</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O15" t="n">
         <v>229.7897616392516</v>
       </c>
       <c r="P15" t="n">
-        <v>422.6520624357051</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
         <v>112.969146960424</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
         <v>110.6004951434828</v>
@@ -35819,10 +35819,10 @@
         <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
-        <v>485.006411183165</v>
+        <v>443.2304035674574</v>
       </c>
       <c r="P16" t="n">
-        <v>214.719384418583</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q16" t="n">
         <v>50.0187433478434</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K18" t="n">
-        <v>307.8562101901822</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -36044,25 +36044,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>245.6445930603719</v>
       </c>
       <c r="O19" t="n">
-        <v>450.6596981334694</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P20" t="n">
         <v>248.1734276171333</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>321.2365787886769</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
@@ -36223,7 +36223,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
         <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
-        <v>517.705230286263</v>
+        <v>499.9269522313643</v>
       </c>
       <c r="O22" t="n">
-        <v>391.7077175305729</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L23" t="n">
-        <v>582.8247454912688</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R23" t="n">
         <v>243.5665220198734</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9308271163655</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36457,10 +36457,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>298.190731672866</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L25" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398013</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q25" t="n">
         <v>202.9212659517818</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>678.3356159031021</v>
       </c>
       <c r="L26" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>750.8836385195242</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N26" t="n">
-        <v>339.2218052593482</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
         <v>248.1734276171333</v>
@@ -36618,7 +36618,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>344.9308271163655</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392516</v>
@@ -36694,10 +36694,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L28" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398013</v>
       </c>
       <c r="N28" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P28" t="n">
-        <v>288.446787172811</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
-        <v>750.8836385195242</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N29" t="n">
-        <v>698.6888516741371</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>344.9308271163655</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392516</v>
@@ -36931,10 +36931,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L31" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>404.8128758212408</v>
       </c>
       <c r="O31" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.02891148676062</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
-        <v>639.7932384704538</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N33" t="n">
-        <v>413.7492518729574</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L34" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>500.6765907349741</v>
+        <v>421.9677860398013</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O34" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
         <v>202.9212659517818</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L35" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P35" t="n">
         <v>248.1734276171333</v>
@@ -37329,7 +37329,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
         <v>229.7897616392516</v>
       </c>
       <c r="P36" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K37" t="n">
-        <v>174.8001443377425</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M37" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P37" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L38" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P38" t="n">
         <v>248.1734276171333</v>
@@ -37566,7 +37566,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
         <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>339.8256034049031</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R39" t="n">
         <v>148.85927498986</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M40" t="n">
-        <v>119.9052140416981</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L41" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P41" t="n">
         <v>248.1734276171333</v>
@@ -37803,7 +37803,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K42" t="n">
-        <v>414.3769175486729</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O42" t="n">
         <v>229.7897616392516</v>
@@ -37879,10 +37879,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.969146960424</v>
+        <v>378.062272217937</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M43" t="n">
-        <v>534.442728698631</v>
+        <v>426.5317761745543</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>312.1905367723225</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J44" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L44" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664825</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P44" t="n">
         <v>248.1734276171333</v>
@@ -38040,7 +38040,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K45" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M45" t="n">
-        <v>381.1713018496178</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O45" t="n">
         <v>229.7897616392516</v>
@@ -38116,7 +38116,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R45" t="n">
         <v>148.85927498986</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622839</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L46" t="n">
         <v>490.7912967507202</v>
@@ -38189,13 +38189,13 @@
         <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4889118870001</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P46" t="n">
-        <v>141.852364198745</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
